--- a/migrant_inputs.xlsx
+++ b/migrant_inputs.xlsx
@@ -1039,6 +1039,298 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E98F0229F486E04DA2FE76E912587A6D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dc21fe023fd19c8612636d1504badd8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="84693147-52c4-4662-b1a7-18c41614cff0" xmlns:ns3="348ca378-c0f9-4e60-b27f-41b2041b1dd9" xmlns:ns4="b27669ef-06da-4186-b2b5-202b89e8933f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="522d6d291a4b2d293ce05e502dc0f1e3" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="84693147-52c4-4662-b1a7-18c41614cff0"/>
+    <xsd:import namespace="348ca378-c0f9-4e60-b27f-41b2041b1dd9"/>
+    <xsd:import namespace="b27669ef-06da-4186-b2b5-202b89e8933f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
+                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
+                <xsd:element ref="ns1:PublishingStartDate" minOccurs="0"/>
+                <xsd:element ref="ns1:PublishingExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns3:Activity" minOccurs="0"/>
+                <xsd:element ref="ns3:Display_on_page" minOccurs="0"/>
+                <xsd:element ref="ns3:Notes0" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="PublishingStartDate" ma:index="11" nillable="true" ma:displayName="Scheduling Start Date" ma:internalName="PublishingStartDate">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PublishingExpirationDate" ma:index="12" nillable="true" ma:displayName="Scheduling End Date" ma:internalName="PublishingExpirationDate">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="84693147-52c4-4662-b1a7-18c41614cff0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="348ca378-c0f9-4e60-b27f-41b2041b1dd9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Activity" ma:index="13" nillable="true" ma:displayName="Activity" ma:list="{765d826c-9f61-4982-a838-b0c69662025f}" ma:internalName="Activity" ma:readOnly="false" ma:showField="Activity" ma:requiredMultiChoice="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Display_on_page" ma:index="14" nillable="true" ma:displayName="Display_on_page" ma:default="1" ma:internalName="Display_on_page">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Notes0" ma:index="15" nillable="true" ma:displayName="Notes" ma:internalName="Notes0">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b27669ef-06da-4186-b2b5-202b89e8933f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item8.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Activity xmlns="348ca378-c0f9-4e60-b27f-41b2041b1dd9">
+      <Value>6</Value>
+    </Activity>
+    <Display_on_page xmlns="348ca378-c0f9-4e60-b27f-41b2041b1dd9">true</Display_on_page>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="84693147-52c4-4662-b1a7-18c41614cff0">Q5AUM46MDZEJ-1131762182-70</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="84693147-52c4-4662-b1a7-18c41614cff0">
+      <Url>https://intranet.ent.southcom.mil/sites/j8/j86/plans_exercises/_layouts/15/DocIdRedir.aspx?ID=Q5AUM46MDZEJ-1131762182-70</Url>
+      <Description>Q5AUM46MDZEJ-1131762182-70</Description>
+    </_dlc_DocIdUrl>
+    <Notes0 xmlns="348ca378-c0f9-4e60-b27f-41b2041b1dd9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE979EA-92A6-439C-9A2C-3F07BE421D7F}">
   <ds:schemaRefs>
@@ -1093,4 +1385,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E4B15B-DAD6-4155-AF3E-5BCE0E7440DB}"/>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A4E331-E5B2-49E2-B472-1848CDF2071C}"/>
+</file>
+
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D0FA57B-47B6-4AE2-915F-31495675F3B4}"/>
+</file>
+
+<file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F749694-9796-48D7-BA69-CA791ECDE416}"/>
 </file>
--- a/migrant_inputs.xlsx
+++ b/migrant_inputs.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t xml:space="preserve">Source</t>
   </si>
@@ -37,10 +37,13 @@
     <t xml:space="preserve">Cuba</t>
   </si>
   <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate</t>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rate</t>
   </si>
   <si>
     <t xml:space="preserve">family.status</t>
@@ -213,7 +216,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,7 +253,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -263,10 +266,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,12 +354,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -367,7 +370,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.00374181478016838</v>
@@ -378,7 +381,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.00374181478016838</v>
@@ -389,7 +392,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.0149672591206735</v>
@@ -400,7 +403,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.195509822263798</v>
@@ -411,7 +414,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.000935453695042095</v>
@@ -422,7 +425,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">1-SUM(B2:B6)</f>
@@ -458,12 +461,12 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -474,7 +477,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.05</v>
@@ -485,7 +488,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">1-B2</f>
@@ -521,12 +524,12 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -537,7 +540,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.9</v>
@@ -548,7 +551,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.05</v>
@@ -559,7 +562,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.05</v>
@@ -593,12 +596,12 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -609,7 +612,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.02</v>
@@ -620,7 +623,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.01</v>
@@ -631,7 +634,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0</v>
@@ -642,7 +645,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.1</v>
@@ -653,7 +656,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.02</v>
@@ -664,7 +667,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
@@ -698,12 +701,12 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -714,7 +717,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.05</v>
@@ -725,7 +728,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">1-B2</f>
